--- a/00_input_data.xlsx
+++ b/00_input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oleksandr-MSI\Documentos\GitHub\spacer-hb-framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F5CBC0-E54F-4AF4-8FD6-82C73B6FE3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1551472F-FC2A-4A6C-884C-853B60F08998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="742" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="file_names" sheetId="20" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="sel-cons_%_fixed" sheetId="15" r:id="rId7"/>
     <sheet name="cost_facade" sheetId="10" r:id="rId8"/>
     <sheet name="cost_electricity" sheetId="11" r:id="rId9"/>
-    <sheet name="cost_pv" sheetId="12" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="21" r:id="rId10"/>
+    <sheet name="cost_pv" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -118,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="185">
   <si>
     <t>Month</t>
   </si>
@@ -736,6 +737,12 @@
   </si>
   <si>
     <t>PV_WORK_DIR</t>
+  </si>
+  <si>
+    <t>price diff</t>
+  </si>
+  <si>
+    <t>%delta of sell/buy tarriffs within the EC</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -1362,6 +1369,11 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1381,6 +1393,677 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$16:$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>66.157591854803016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.206989247311824</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.483288166214997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.00707278120008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.499769479022589</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.853029068187993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.06535947712419</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.379844961240309</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.540750201031166</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.208926875593548</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43.621749408983447</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46.10140605027695</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8744-4D17-9EB2-8C842B8C91FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$16:$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$16:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>53.851261620185923</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.282258064516125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.295392953929543</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.555099247091029</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.590594744121709</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.61776691116544</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.725490196078425</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.336152219873146</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.828295728678867</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.284900284900303</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.120567375886512</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.501917341286752</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8744-4D17-9EB2-8C842B8C91FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$16:$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$16:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>16.932270916334659</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-61.491935483870975</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.2682926829268162</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1991786447638511</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.863070539419075</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9119804400977953</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-10.294117647058808</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-48.794926004228323</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-26.30906768837804</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-34.487179487179475</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-38.382978723404257</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-32.296548785683868</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8744-4D17-9EB2-8C842B8C91FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="778148511"/>
+        <c:axId val="778150431"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="778148511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="778150431"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="778150431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>% delta of sell/buy tarriff</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> relation (i.e. income within EC)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="778148511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1865,7 +2548,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2352,7 +3035,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2927,8 +3610,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2955,8 +3678,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3057,6 +3780,509 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3443,7 +4669,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3959,7 +5185,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4476,6 +5702,49 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27D9FA0D-E6DD-46B5-A5DB-DE21677EBD2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4879,7 +6148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C59AD79-7D9C-48B5-8A2A-918396B0173F}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -4997,6 +6266,706 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B20A38D-4253-4996-BBA9-2B9E7CE00944}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="43.2">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1" s="73" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.251</v>
+      </c>
+      <c r="E2" s="4">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="F2">
+        <f>D2*(1-$I$2)</f>
+        <v>0.1255</v>
+      </c>
+      <c r="G2">
+        <f>E2*(1+$I$2)</f>
+        <v>0.10425000000000001</v>
+      </c>
+      <c r="H2" s="38">
+        <f>(1-G2/F2)*100</f>
+        <v>16.932270916334659</v>
+      </c>
+      <c r="I2" s="73">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.248</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.13350000000000001</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F13" si="0">D3*(1-$I$2)</f>
+        <v>0.124</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G13" si="1">E3*(1+$I$2)</f>
+        <v>0.20025000000000001</v>
+      </c>
+      <c r="H3" s="38">
+        <f t="shared" ref="H3:H13" si="2">(1-G3/F3)*100</f>
+        <v>-61.491935483870975</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.246</v>
+      </c>
+      <c r="E4" s="4">
+        <v>8.9599999999999999E-2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.123</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.13439999999999999</v>
+      </c>
+      <c r="H4" s="38">
+        <f t="shared" si="2"/>
+        <v>-9.2682926829268162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.24349999999999999</v>
+      </c>
+      <c r="E5" s="4">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.12175</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.11055000000000001</v>
+      </c>
+      <c r="H5" s="38">
+        <f t="shared" si="2"/>
+        <v>9.1991786447638511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="E6" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.1205</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.10500000000000001</v>
+      </c>
+      <c r="H6" s="38">
+        <f t="shared" si="2"/>
+        <v>12.863070539419075</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.24540000000000001</v>
+      </c>
+      <c r="E7" s="4">
+        <v>7.8600000000000003E-2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.1227</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.1179</v>
+      </c>
+      <c r="H7" s="38">
+        <f t="shared" si="2"/>
+        <v>3.9119804400977953</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="E8" s="4">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.13124999999999998</v>
+      </c>
+      <c r="H8" s="38">
+        <f t="shared" si="2"/>
+        <v>-10.294117647058808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.23649999999999999</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.1173</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.11824999999999999</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.17595</v>
+      </c>
+      <c r="H9" s="38">
+        <f t="shared" si="2"/>
+        <v>-48.794926004228323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.2349</v>
+      </c>
+      <c r="E10" s="4">
+        <v>9.8900000000000002E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.11745</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.14835000000000001</v>
+      </c>
+      <c r="H10" s="38">
+        <f t="shared" si="2"/>
+        <v>-26.30906768837804</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.10489999999999999</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.15734999999999999</v>
+      </c>
+      <c r="H11" s="38">
+        <f t="shared" si="2"/>
+        <v>-34.487179487179475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.1084</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0.16259999999999999</v>
+      </c>
+      <c r="H12" s="38">
+        <f t="shared" si="2"/>
+        <v>-38.382978723404257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.23469999999999999</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.11735</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0.15525</v>
+      </c>
+      <c r="H13" s="38">
+        <f t="shared" si="2"/>
+        <v>-32.296548785683868</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="72">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="72">
+        <v>0.25</v>
+      </c>
+      <c r="E15" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>66.157591854803016</v>
+      </c>
+      <c r="D16">
+        <v>53.851261620185923</v>
+      </c>
+      <c r="E16">
+        <v>16.932270916334659</v>
+      </c>
+      <c r="F16">
+        <v>35.391766268260291</v>
+      </c>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>34.206989247311824</v>
+      </c>
+      <c r="D17">
+        <v>10.282258064516125</v>
+      </c>
+      <c r="E17">
+        <v>-61.491935483870975</v>
+      </c>
+      <c r="F17">
+        <v>-25.604838709677445</v>
+      </c>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>55.483288166214997</v>
+      </c>
+      <c r="D18">
+        <v>39.295392953929543</v>
+      </c>
+      <c r="E18">
+        <v>-9.2682926829268162</v>
+      </c>
+      <c r="F18">
+        <v>15.013550135501363</v>
+      </c>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>63.00707278120008</v>
+      </c>
+      <c r="D19">
+        <v>49.555099247091029</v>
+      </c>
+      <c r="E19">
+        <v>9.1991786447638511</v>
+      </c>
+      <c r="F19">
+        <v>29.377138945927449</v>
+      </c>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>64.499769479022589</v>
+      </c>
+      <c r="D20">
+        <v>51.590594744121709</v>
+      </c>
+      <c r="E20">
+        <v>12.863070539419075</v>
+      </c>
+      <c r="F20">
+        <v>32.2268326417704</v>
+      </c>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>60.853029068187993</v>
+      </c>
+      <c r="D21">
+        <v>46.61776691116544</v>
+      </c>
+      <c r="E21">
+        <v>3.9119804400977953</v>
+      </c>
+      <c r="F21">
+        <v>25.264873675631616</v>
+      </c>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>55.06535947712419</v>
+      </c>
+      <c r="D22">
+        <v>38.725490196078425</v>
+      </c>
+      <c r="E22">
+        <v>-10.294117647058808</v>
+      </c>
+      <c r="F22">
+        <v>14.215686274509798</v>
+      </c>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>39.379844961240309</v>
+      </c>
+      <c r="D23">
+        <v>17.336152219873146</v>
+      </c>
+      <c r="E23">
+        <v>-48.794926004228323</v>
+      </c>
+      <c r="F23">
+        <v>-15.729386892177622</v>
+      </c>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>48.540750201031166</v>
+      </c>
+      <c r="D24">
+        <v>29.828295728678867</v>
+      </c>
+      <c r="E24">
+        <v>-26.30906768837804</v>
+      </c>
+      <c r="F24">
+        <v>1.759614020150424</v>
+      </c>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>45.208926875593548</v>
+      </c>
+      <c r="D25">
+        <v>25.284900284900303</v>
+      </c>
+      <c r="E25">
+        <v>-34.487179487179475</v>
+      </c>
+      <c r="F25">
+        <v>-4.6011396011395922</v>
+      </c>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>11</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>43.621749408983447</v>
+      </c>
+      <c r="D26">
+        <v>23.120567375886512</v>
+      </c>
+      <c r="E26">
+        <v>-38.382978723404257</v>
+      </c>
+      <c r="F26">
+        <v>-7.6312056737588785</v>
+      </c>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>12</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>46.10140605027695</v>
+      </c>
+      <c r="D27">
+        <v>26.501917341286752</v>
+      </c>
+      <c r="E27">
+        <v>-32.296548785683868</v>
+      </c>
+      <c r="F27">
+        <v>-2.8973157221985568</v>
+      </c>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F101F6-5708-4D94-8A03-BFCF481ED672}">
   <dimension ref="A2:R54"/>
   <sheetViews>
@@ -7619,19 +9588,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036F7A59-91FA-4347-ADC4-C89B842010F0}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="12" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.2">
+    <row r="1" spans="1:14" ht="43.2">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -7654,7 +9625,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7671,7 +9642,7 @@
         <v>6.9500000000000006E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7688,7 +9659,7 @@
         <v>0.13350000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7705,7 +9676,7 @@
         <v>8.9599999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7722,7 +9693,7 @@
         <v>7.3700000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7739,7 +9710,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7756,7 +9727,7 @@
         <v>7.8600000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7773,7 +9744,7 @@
         <v>8.7499999999999994E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7790,7 +9761,7 @@
         <v>0.1173</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7807,7 +9778,7 @@
         <v>9.8900000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7824,7 +9795,7 @@
         <v>0.10489999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7841,7 +9812,7 @@
         <v>0.1084</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7857,6 +9828,88 @@
       <c r="E13" s="4">
         <v>0.10349999999999999</v>
       </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="4"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="4"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="4"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="4"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="4"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="4"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="4"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="4"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="4"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="4"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="4"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="4"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
